--- a/docs/部品選定・発注/購入申請_試作/購入申請(20210601)_2.xlsx
+++ b/docs/部品選定・発注/購入申請_試作/購入申請(20210601)_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プロジェクト演習4\docs\部品選定・発注\購入申請_試作\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD862A0C-1CEA-4ED9-84DB-02AFEE1550F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54F9805-55BB-4B7C-AE98-2F355F25C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23160" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>品名</t>
     <rPh sb="0" eb="1">
@@ -459,6 +459,30 @@
   </si>
   <si>
     <t>タイヤ 200MM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://item.rakuten.co.jp/nejiya/00n0005000140000000000_b/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m00000000140000000_b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄/生地 六角ナット [1種]
+Ｍ１４　【 バラ売り ： 7個入り 】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>六角ナットM１４</t>
+    <rPh sb="0" eb="2">
+      <t>ロッカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>六角ナット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -919,6 +943,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,9 +968,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1056,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>253782</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>148569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4773423" cy="642484"/>
@@ -1202,7 +1226,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514569</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>65690</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1600,19 +1624,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1898,15 +1922,15 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="28">
         <f>SUM(H3:H12)</f>
         <v>41401</v>
@@ -1944,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD651BF2-3CD5-4AC4-A105-AF8C7F0AE2DB}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1967,19 +1991,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -2541,7 +2565,7 @@
       <c r="B22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="41" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="22"/>
@@ -2600,78 +2624,136 @@
     </row>
     <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="23">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
       </c>
       <c r="H24" s="18">
         <f>F24*G24</f>
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="23">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <f>F25*G25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="J25" s="15"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="K25" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="26">
-        <f>SUM(H3:H24)</f>
-        <v>109625</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.6" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="27"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="10"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="26">
+        <f>SUM(H3:H25)</f>
+        <v>110030</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.6" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="27"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -2684,9 +2766,10 @@
     <hyperlink ref="J9" r:id="rId7" xr:uid="{2C85185C-460B-46DB-8A2B-56996811825D}"/>
     <hyperlink ref="J22" r:id="rId8" xr:uid="{D25F7A1D-E9BD-4489-AB61-B9AA9786C94E}"/>
     <hyperlink ref="J21" r:id="rId9" display="https://item.rakuten.co.jp/nejiya/4944825410025/?gclid=Cj0KCQjws-OEBhCkARIsAPhOkIb9yO1vSEk-d9gb4vSvDGGWenpPJv8C65WVbBsSQbu_deGXzuKIy4MaAi0sEALw_wcB&amp;scid=af_pc_etc&amp;sc2id=af_113_0_10001868&amp;icm_cid=12562029812&amp;icm_agid=119865627536&amp;gclid=Cj0KCQjws-OEBhCkARIsAPhOkIb9yO1vSEk-d9gb4vSvDGGWenpPJv8C65WVbBsSQbu_deGXzuKIy4MaAi0sEALw_wcB&amp;icm_acid=330-744-2500" xr:uid="{6AC8ECE8-BA73-4B35-9DD1-CEA5F2CA4301}"/>
+    <hyperlink ref="J24" r:id="rId10" xr:uid="{C4AE2933-E97E-4DE0-A80C-746198E19D5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/docs/部品選定・発注/購入申請_試作/購入申請(20210601)_2.xlsx
+++ b/docs/部品選定・発注/購入申請_試作/購入申請(20210601)_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プロジェクト演習4\docs\部品選定・発注\購入申請_試作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/kcg/4年/プロ演４/git/docs/部品選定・発注/購入申請_試作/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54F9805-55BB-4B7C-AE98-2F355F25C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E54F9805-55BB-4B7C-AE98-2F355F25C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96644B70-331D-4833-893E-07FD0F2DC81B}"/>
   <bookViews>
-    <workbookView xWindow="-23160" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="購入リスト" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -764,15 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF314C99"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -819,7 +810,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,25 +907,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -968,6 +953,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1044,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>253782</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>148569</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4773423" cy="642484"/>
@@ -1226,7 +1214,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>514569</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>65690</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1607,38 +1595,38 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.23046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.07421875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.23046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.07421875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.4609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3046875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.4609375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.23046875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1709,7 +1697,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1745,7 +1733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1771,7 +1759,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1786,7 +1774,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1818,7 +1806,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1850,7 +1838,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1878,7 +1866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1893,7 +1881,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1908,7 +1896,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="12.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1921,16 +1909,16 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+    <row r="13" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="28">
         <f>SUM(H3:H12)</f>
         <v>41401</v>
@@ -1939,13 +1927,13 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
     </row>
   </sheetData>
@@ -1968,44 +1956,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD651BF2-3CD5-4AC4-A105-AF8C7F0AE2DB}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="70.765625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.3046875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" style="14" customWidth="1"/>
     <col min="6" max="6" width="8" style="7" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.07421875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="7" customWidth="1"/>
     <col min="9" max="9" width="21" style="14" customWidth="1"/>
-    <col min="10" max="10" width="75.21875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="90.44140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="75.23046875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="90.4609375" style="14" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>4</v>
@@ -2038,7 +2026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2072,7 +2060,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2100,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2113,7 +2101,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2149,7 +2137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2183,18 +2171,18 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="38" t="s">
         <v>67</v>
       </c>
       <c r="F8" s="6">
@@ -2215,33 +2203,33 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+    <row r="9" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>8800</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>1</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="35">
         <f>F9*G9</f>
         <v>8800</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="36" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -2249,7 +2237,7 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2277,7 +2265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -2290,7 +2278,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2324,7 +2312,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2334,7 +2322,7 @@
       <c r="C13" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="38" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="30" t="s">
@@ -2358,7 +2346,7 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2384,7 +2372,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -2410,7 +2398,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2423,7 +2411,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -2455,7 +2443,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -2487,7 +2475,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -2515,7 +2503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2528,7 +2516,7 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
         <v>77</v>
@@ -2560,12 +2548,12 @@
       </c>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="22"/>
@@ -2590,7 +2578,7 @@
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
         <v>71</v>
@@ -2622,12 +2610,12 @@
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -2654,7 +2642,7 @@
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22" t="s">
@@ -2680,7 +2668,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2693,67 +2681,41 @@
       <c r="J26" s="15"/>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="1:11" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+    <row r="27" spans="1:11" ht="14.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="26">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="26">
         <f>SUM(H3:H25)</f>
         <v>110030</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.6" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="12" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="27"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="10"/>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/docs/部品選定・発注/購入申請_試作/購入申請(20210601)_2.xlsx
+++ b/docs/部品選定・発注/購入申請_試作/購入申請(20210601)_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/kcg/4年/プロ演４/git/docs/部品選定・発注/購入申請_試作/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E54F9805-55BB-4B7C-AE98-2F355F25C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96644B70-331D-4833-893E-07FD0F2DC81B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E54F9805-55BB-4B7C-AE98-2F355F25C212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47EF9F9-5603-4D6C-AFD9-31BBCECCABFB}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,10 +230,6 @@
     <t>送料区分650は8,000円以上の場合送料無料，8,000円未満の場合は送料650円。送料区分200は3,000円以上で送料無料</t>
   </si>
   <si>
-    <t>https://www.switch-science.com/catalog/6370/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.switch-science.com/catalog/6900/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -483,6 +479,10 @@
   </si>
   <si>
     <t>六角ナット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raspberry-pi.ksyic.com/main/index/pdp.id/557/pdp.open/557</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -931,6 +931,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,9 +956,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,19 +1612,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1691,10 +1691,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1779,14 +1779,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="23">
         <v>4150</v>
@@ -1799,10 +1799,10 @@
         <v>8300</v>
       </c>
       <c r="I7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="K7" s="13"/>
     </row>
@@ -1811,14 +1811,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="23">
         <v>2439</v>
@@ -1831,10 +1831,10 @@
         <v>2439</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="13"/>
     </row>
@@ -1859,11 +1859,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1910,15 +1910,15 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="28">
         <f>SUM(H3:H12)</f>
         <v>41401</v>
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD651BF2-3CD5-4AC4-A105-AF8C7F0AE2DB}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" x14ac:dyDescent="0.25"/>
@@ -1979,19 +1979,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="A1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -2037,10 +2037,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="18">
         <v>13640</v>
@@ -2053,10 +2053,10 @@
         <v>13640</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="K3" s="13"/>
     </row>
@@ -2081,11 +2081,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2131,10 +2131,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
@@ -2174,16 +2174,16 @@
     <row r="8" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="6">
         <v>31892</v>
@@ -2199,7 +2199,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="13"/>
     </row>
@@ -2208,16 +2208,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="33">
         <v>8800</v>
@@ -2233,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="13"/>
     </row>
@@ -2308,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="13"/>
     </row>
@@ -2317,16 +2317,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="6">
         <v>980</v>
@@ -2339,10 +2339,10 @@
         <v>980</v>
       </c>
       <c r="I13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="K13" s="13"/>
     </row>
@@ -2416,14 +2416,14 @@
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="23">
         <v>4150</v>
@@ -2436,10 +2436,10 @@
         <v>8300</v>
       </c>
       <c r="I17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="K17" s="13"/>
     </row>
@@ -2448,14 +2448,14 @@
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="23">
         <v>2439</v>
@@ -2468,10 +2468,10 @@
         <v>2439</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="13"/>
     </row>
@@ -2496,11 +2496,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2519,16 +2519,16 @@
     <row r="21" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="23">
         <v>1280</v>
@@ -2541,24 +2541,24 @@
         <v>3840</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="23">
         <v>480</v>
@@ -2571,26 +2571,26 @@
         <v>480</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="23">
         <v>1212</v>
@@ -2603,26 +2603,26 @@
         <v>1212</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" ht="13.3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="E24" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="23">
         <v>405</v>
@@ -2635,10 +2635,10 @@
         <v>405</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K24" s="13"/>
     </row>
@@ -2661,11 +2661,11 @@
         <v>0</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2682,15 +2682,15 @@
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" ht="14.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="26">
         <f>SUM(H3:H25)</f>
         <v>110030</v>
